--- a/File_Excel/commenti_positivi_negativi_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia_cronaca.xlsx
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" t="n">
         <v>27</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G20" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" t="n">
         <v>48</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" t="n">
         <v>22</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G28" t="n">
         <v>11</v>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="G30" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" t="n">
         <v>26</v>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" t="n">
         <v>28</v>
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="n">
         <v>22</v>

--- a/File_Excel/commenti_positivi_negativi_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia_cronaca.xlsx
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="n">
         <v>19</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G11" t="n">
         <v>16</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="n">
         <v>15</v>
